--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RProjects\andygillycv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4527AE1-C8B2-41B9-A680-84D7D43799B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D2844-2A87-4734-9E0A-F93B9A811317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="5610" windowWidth="28770" windowHeight="15270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
     <sheet name="employment" sheetId="5" r:id="rId2"/>
     <sheet name="awards" sheetId="4" r:id="rId3"/>
+    <sheet name="employment (2)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>in_resume</t>
   </si>
@@ -136,12 +137,6 @@
     <t>Actuarial Trainee</t>
   </si>
   <si>
-    <t>Focused on methods of functional data analysis as an alternative to classic multivariate approaches for the study of continuous data.</t>
-  </si>
-  <si>
-    <t>Research primarily conducted in R</t>
-  </si>
-  <si>
     <t>Environmental Statistics Tutor</t>
   </si>
   <si>
@@ -157,9 +152,6 @@
     <t>First Class Honours</t>
   </si>
   <si>
-    <t>Syllabus included courses across probability, modelling, design, inference, Bayesian methodology, and a range of applications including biostatistics, environmental statistics and financial statistics.</t>
-  </si>
-  <si>
     <t>CS1 Actuarial Statistics</t>
   </si>
   <si>
@@ -181,42 +173,56 @@
     <t>awardingBody</t>
   </si>
   <si>
-    <t xml:space="preserve">I have worked a variety of roles across actuarial modelling at Lloyds Banking Group. This has included bulk annuity pricing, capital modelling, annuity asset &amp; liability management, and model development. During my time at LBG, I found a particular affinity &amp; flair for the more technical aspects of my roles which involved modelling, programming, automation of processes, and design activities geared at improving the customer experience of tools. 
-I thoroughly enjoyed my time working within Actuarial Change where I worked my way up from a junior programming position to a lead design role for the large-scale redevelopment of a Bulk Annuity Pricing R Shiny Project. I take pride in playing a significant part in improving the auditability &amp; control of the pricing quotation process whilst also increasing the speed &amp; efficiency at which quotes could be produced.
+    <t>team</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Bulk Annuity Model Development</t>
+  </si>
+  <si>
+    <t>Bulk Annuity Pricing</t>
+  </si>
+  <si>
+    <t>Actuarial Model Developer (Design Lead)</t>
+  </si>
+  <si>
+    <t>R User Group Facilitator</t>
+  </si>
+  <si>
+    <t>Internal R Package Development</t>
+  </si>
+  <si>
+    <t>R Shiny Development</t>
+  </si>
+  <si>
+    <t>UI/UX alignment across front end technologies</t>
+  </si>
+  <si>
+    <t>Focused on methods of functional data analysis as an alternative to classic multivariate approaches in the study of continuous data.</t>
+  </si>
+  <si>
+    <t>Statistical analyses conducted using R</t>
+  </si>
+  <si>
+    <t>Practical training covered professional skills such as project planning, report writing, case study analyses, presentations, and discussions around the misuse of statistics.</t>
+  </si>
+  <si>
+    <t>Syllabus was wide-ranging including modules on probability, modelling, design, inference, Bayesian methodology, and a range of applied courses such as biostatistics, environmental statistics and financial statistics.</t>
+  </si>
+  <si>
+    <t>I am working as an R Developer within the Investments team of the Insight &amp; Analytics division. I'm involved in exciting digital projects: developing apps, leveraging APIs, advancing our internal packages and transforming processes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During my time at LBG, I gained experience in a variety of roles in areas such as bulk annuity pricing, capital modelling, annuity asset &amp; liability management, and model development. I found a particular affinity &amp; flair for the more technical aspects of my roles which involved modelling, programming, automation of processes, and design activities geared at improving the customer experience of tools. 
+Specifically, I thoroughly enjoyed my time working within the Actuarial Change department where I held a junior programming position and later advanced to a lead design role for the large-scale redevelopment of a bulk annuity pricing project in R Shiny. I take pride in having played a significant part in improving the auditability &amp; control of the pricing quotation process whilst also increasing the speed &amp; efficiency at which quotes could be produced.
 I have also gained invaluable experience working in a very technical actuarial team. The Annuity Asset &amp; Liability Management team was responsible for the for production and reporting of the Solvency II Matching Adjustment, whilst also providing technical expertise &amp; support in this area. My main undertakings included rebalancing the asset portfolio, on-going monitoring of swap tolerances to ensure full compliance with SII MA regulations, facilitating new illiquid loan trades, development &amp; automation of team processes, and acting as key liaison for model development teams throughout user acceptance testing. </t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Bulk Annuity Model Development</t>
-  </si>
-  <si>
-    <t>Bulk Annuity Pricing</t>
-  </si>
-  <si>
-    <t>Actuarial Model Developer (Design Lead)</t>
-  </si>
-  <si>
-    <t>R User Group Facilitator</t>
-  </si>
-  <si>
-    <t>Internal R Package Development</t>
-  </si>
-  <si>
-    <t>Practical training included project planning, professional skills training, report writing, practice presentations, and various case studies including the misuse of statistics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am working as an R Developer within the Investments team of the Insight &amp; Analytics division. I'm involved in exciting digital projects developing apps, leveraging APIs, advancing our internal packages and transforming processes. Outside of the investments team, I also help develop &amp; maintain R packages used across the business. </t>
-  </si>
-  <si>
-    <t>R Shiny Development</t>
-  </si>
-  <si>
-    <t>UI/UX alignment across front end technologies</t>
+    <t xml:space="preserve">During my time at LBG, I gained experience in a variety of roles in areas such as bulk annuity pricing, capital modelling, annuity asset &amp; liability management, and model development. I found a particular affinity &amp; flair for the more technical aspects of my roles which involved modelling, programming, automation of processes, and design activities geared at improving the customer experience of tools. 
+Specifically, I thoroughly enjoyed my time working within the Actuarial Change department where I held a junior programming position and later advanced to a lead design role for the large-scale redevelopment of a bulk annuity pricing project in R Shiny. I take pride in having played a significant part in improving the auditability &amp; control of the pricing quotation process whilst also increasing the speed &amp; efficiency at which quotes could be produced.
+</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>2015</v>
@@ -1123,19 +1129,19 @@
         <v>2017</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>2011</v>
@@ -1152,10 +1158,10 @@
         <v>2015</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>57</v>
@@ -1173,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D01ECB-3D9A-45BE-9939-09163CFFD91D}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1239,10 +1245,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1251,34 +1257,34 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1293,7 +1299,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1307,7 +1313,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1330,10 +1336,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1356,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1385,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1425,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1433,10 +1439,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1444,10 +1450,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1455,10 +1461,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1466,10 +1472,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1477,10 +1483,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1489,4 +1495,241 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C791BE46-C00C-4EDB-81D4-71B44E9B72FB}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
+    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="43.375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RProjects\andygillycv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03D2844-2A87-4734-9E0A-F93B9A811317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D16A1-FEE6-4CB4-B877-598A574E696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t>in_resume</t>
   </si>
@@ -223,6 +223,9 @@
     <t xml:space="preserve">During my time at LBG, I gained experience in a variety of roles in areas such as bulk annuity pricing, capital modelling, annuity asset &amp; liability management, and model development. I found a particular affinity &amp; flair for the more technical aspects of my roles which involved modelling, programming, automation of processes, and design activities geared at improving the customer experience of tools. 
 Specifically, I thoroughly enjoyed my time working within the Actuarial Change department where I held a junior programming position and later advanced to a lead design role for the large-scale redevelopment of a bulk annuity pricing project in R Shiny. I take pride in having played a significant part in improving the auditability &amp; control of the pricing quotation process whilst also increasing the speed &amp; efficiency at which quotes could be produced.
 </t>
+  </si>
+  <si>
+    <t>Currently working within the Investments team of the Insight &amp; Analytics division as an R Developer. I'm involved in a breadth of exciting digital projects with key focuses on developing apps, leveraging APIs, advancing our internal packages and transforming processes.</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D01ECB-3D9A-45BE-9939-09163CFFD91D}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1260,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>53</v>
